--- a/src/main/resources/sample.xlsx
+++ b/src/main/resources/sample.xlsx
@@ -2,30 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet state="visible" name="Summary" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Invoice Details" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Invoice#</t>
   </si>
   <si>
+    <t>XXXXX</t>
+  </si>
+  <si>
     <t>Customer Name:</t>
   </si>
   <si>
-    <t>MURATZA</t>
-  </si>
-  <si>
-    <t>Invoice Currency: USD</t>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice Currency: </t>
   </si>
   <si>
     <t xml:space="preserve">Customer Account Number: </t>
@@ -64,21 +65,6 @@
     <t>Total Charges</t>
   </si>
   <si>
-    <t>dummy</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>RX6693</t>
-  </si>
-  <si>
-    <t>14146857413</t>
-  </si>
-  <si>
-    <t>14146857414</t>
-  </si>
-  <si>
     <t>MAWB</t>
   </si>
   <si>
@@ -122,153 +108,6 @@
   </si>
   <si>
     <t>Custom Declartion Date</t>
-  </si>
-  <si>
-    <t>2023-07-17</t>
-  </si>
-  <si>
-    <t>290407068996</t>
-  </si>
-  <si>
-    <t>LZ#1918-SA</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>Shigar Fashion Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Aisha Alqahtani</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>1454.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>290407069003</t>
-  </si>
-  <si>
-    <t>LZ#2001-SA</t>
-  </si>
-  <si>
-    <t>Ebtehal Mm</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>242.0</t>
-  </si>
-  <si>
-    <t>290407069014</t>
-  </si>
-  <si>
-    <t>LZ#2004-SA</t>
-  </si>
-  <si>
-    <t>hala alwaely</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>2452.0</t>
-  </si>
-  <si>
-    <t>290407069025</t>
-  </si>
-  <si>
-    <t>LZ#2005-SA</t>
-  </si>
-  <si>
-    <t>Elham Mohammed</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>290407069036</t>
-  </si>
-  <si>
-    <t>LZ#2010-SA</t>
-  </si>
-  <si>
-    <t>JAMALAH AL GAMDY</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>290407069047</t>
-  </si>
-  <si>
-    <t>LZ#1980-SA</t>
-  </si>
-  <si>
-    <t>عبدالرهاب المطرفي</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>290407069058</t>
-  </si>
-  <si>
-    <t>LZ#1974-SA</t>
-  </si>
-  <si>
-    <t>Afrah Alharbi</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>222.0</t>
-  </si>
-  <si>
-    <t>290407069069</t>
-  </si>
-  <si>
-    <t>LZ#1927-SA</t>
-  </si>
-  <si>
-    <t>Lolwah Ahmed</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>RUH</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2023-07-29</t>
-  </si>
-  <si>
-    <t>XXXX</t>
   </si>
 </sst>
 </file>
@@ -414,16 +253,13 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -493,6 +329,9 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,16 +577,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.88" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="23.88"/>
+    <col customWidth="1" min="2" max="2" width="18.5"/>
+    <col customWidth="1" min="3" max="3" width="16.88"/>
+    <col customWidth="1" min="4" max="4" width="17.75"/>
+    <col customWidth="1" min="5" max="6" width="12.63"/>
+    <col customWidth="1" min="9" max="9" width="20.88"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="2" ht="15.75" customHeight="1"/>
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -760,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -778,19 +623,19 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -799,48 +644,1095 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>84</v>
+        <v>6</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" ht="41.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="J6" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="K6" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -851,82 +1743,1325 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="17" max="17" customWidth="true" width="19.63" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="17.25" collapsed="true"/>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col customWidth="1" min="14" max="14" width="18.13"/>
+    <col customWidth="1" min="17" max="17" width="19.63"/>
+    <col customWidth="1" min="19" max="19" width="17.25"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="J1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="L1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="N1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
     </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/sample.xlsx
+++ b/src/main/resources/sample.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Customer Name:</t>
+  </si>
+  <si>
+    <t>XXXX</t>
   </si>
   <si>
     <t xml:space="preserve">Customer Account Number: </t>
@@ -74,6 +77,9 @@
     <t>Custom Declartion Currency</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>MAWB</t>
   </si>
   <si>
@@ -118,7 +124,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -134,6 +140,11 @@
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font/>
@@ -169,14 +180,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF17365D"/>
-        <bgColor rgb="FF17365D"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF17365D"/>
+        <bgColor rgb="FF17365D"/>
       </patternFill>
     </fill>
   </fills>
@@ -282,6 +293,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -297,8 +311,8 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -308,20 +322,23 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -332,39 +349,7 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -384,27 +369,55 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -453,36 +466,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1781175" cy="581025"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,13 +673,18 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="23.88"/>
-    <col customWidth="1" min="5" max="5" width="18.5"/>
-    <col customWidth="1" min="6" max="6" width="16.88"/>
-    <col customWidth="1" min="7" max="7" width="17.75"/>
-    <col customWidth="1" min="8" max="9" width="12.63"/>
+    <col customWidth="1" min="1" max="1" width="21.88"/>
+    <col customWidth="1" min="2" max="2" width="13.0"/>
+    <col customWidth="1" min="3" max="3" width="11.88"/>
+    <col customWidth="1" min="4" max="4" width="11.38"/>
+    <col customWidth="1" min="5" max="5" width="12.5"/>
+    <col customWidth="1" min="6" max="6" width="10.0"/>
+    <col customWidth="1" min="7" max="7" width="14.5"/>
+    <col customWidth="1" min="8" max="8" width="9.63"/>
+    <col customWidth="1" min="9" max="9" width="12.63"/>
     <col customWidth="1" min="11" max="11" width="16.0"/>
-    <col customWidth="1" min="12" max="12" width="20.88"/>
+    <col customWidth="1" min="12" max="12" width="9.63"/>
+    <col customWidth="1" min="13" max="13" width="10.75"/>
     <col customWidth="1" min="16" max="16" width="17.13"/>
   </cols>
   <sheetData>
@@ -737,175 +726,185 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="2"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="12" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
     </row>
     <row r="10" ht="41.25" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="I10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="J10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="K10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="L10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="M10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="18" t="s">
+      <c r="N10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="P10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="Q10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
+      <c r="R10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="20"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="1"/>
@@ -928,17 +927,17 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -958,7 +957,7 @@
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="L15" s="22"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -1983,394 +1982,386 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
+    <row r="2" ht="32.25" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
     </row>
-    <row r="10" ht="32.25" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="U10" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="V10" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="W10" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
@@ -2447,7 +2438,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2513,7 +2504,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2538,30 +2529,30 @@
       <c r="AE15" s="50"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="49"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="50"/>
       <c r="Y16" s="50"/>
       <c r="Z16" s="50"/>
       <c r="AA16" s="50"/>
@@ -2570,72 +2561,8 @@
       <c r="AD16" s="50"/>
       <c r="AE16" s="50"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-    </row>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3624,12 +3551,10 @@
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/sample.xlsx
+++ b/src/main/resources/sample.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Customer Name:</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Custom Declartion Currency</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -165,10 +168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -191,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border/>
     <border>
       <bottom style="thin">
@@ -271,16 +272,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -337,6 +333,9 @@
     <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -350,78 +349,49 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="9" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -437,7 +407,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -466,7 +436,36 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1428750" cy="466725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -881,7 +880,9 @@
       <c r="R10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="14"/>
+      <c r="S10" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
@@ -891,20 +892,20 @@
       <c r="Z10" s="14"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="20" t="s">
-        <v>21</v>
+      <c r="A11" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="22"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="1"/>
@@ -931,13 +932,13 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -957,7 +958,7 @@
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="L15" s="24"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -1950,8 +1951,8 @@
     <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="H9:M9"/>
     <mergeCell ref="O9:R9"/>
-    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1967,1594 +1968,171 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.88"/>
-    <col customWidth="1" min="2" max="2" width="12.63"/>
-    <col customWidth="1" min="3" max="3" width="12.25"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
-    <col customWidth="1" min="14" max="14" width="12.5"/>
-    <col customWidth="1" min="17" max="17" width="15.75"/>
-    <col customWidth="1" min="18" max="18" width="11.88"/>
-    <col customWidth="1" min="19" max="19" width="13.75"/>
-    <col customWidth="1" min="20" max="20" width="16.63"/>
-    <col customWidth="1" min="21" max="21" width="17.0"/>
-    <col customWidth="1" min="22" max="22" width="19.63"/>
-    <col customWidth="1" min="24" max="24" width="17.25"/>
+    <col customWidth="1" min="1" max="1" width="22.13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30" t="s">
+    <row r="3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="30" t="s">
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
     </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="34" t="s">
+    <row r="10">
+      <c r="A10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="B10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="C10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="E10" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="F10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="G10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="H10" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="I10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="J10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="K10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="U10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="38" t="s">
+      <c r="W10" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:U9"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/sample.xlsx
+++ b/src/main/resources/sample.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Customer Name:</t>
   </si>
@@ -23,6 +23,9 @@
     <t xml:space="preserve">Customer Account Number: </t>
   </si>
   <si>
+    <t>Invoice Period:</t>
+  </si>
+  <si>
     <t>Invocie Date:</t>
   </si>
   <si>
@@ -32,7 +35,7 @@
     <t>Charges as per Custom Declartion Currency</t>
   </si>
   <si>
-    <t>Charger as per Customer Currency</t>
+    <t>Chargers as per Customer Currency</t>
   </si>
   <si>
     <t>Invoice Type</t>
@@ -77,10 +80,13 @@
     <t>Custom Declartion Currency</t>
   </si>
   <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Invoice Date:</t>
+  </si>
+  <si>
+    <t>Charges as per Customer Currency</t>
   </si>
   <si>
     <t>MAWB</t>
@@ -127,7 +133,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -165,11 +171,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -192,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border/>
     <border>
       <bottom style="thin">
@@ -249,11 +250,6 @@
       </top>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -276,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -298,6 +294,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -309,32 +308,23 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -345,54 +335,41 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,7 +735,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -776,7 +753,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -794,172 +771,128 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13" t="s">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="12"/>
     </row>
-    <row r="10" ht="41.25" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="16" t="s">
+    <row r="11" ht="41.25" customHeight="1">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="H11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="J11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="K11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="L11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="M11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="19" t="s">
+      <c r="N11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="19" t="s">
+      <c r="P11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="Q11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
+      <c r="R11" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="L15" s="25"/>
-    </row>
+    <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -1946,13 +1879,10 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="H10:N10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1996,7 +1926,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2004,135 +1934,129 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
+      <c r="A8" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="B11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="C11" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="D11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="E11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="F11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="G11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="H11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="I11" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="38" t="s">
+      <c r="J11" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="M11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="N11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="O11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="39" t="s">
+      <c r="P11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="S10" s="39" t="s">
+      <c r="Q11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="T10" s="38" t="s">
+      <c r="S11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="38" t="s">
+      <c r="T11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="V10" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="X10" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
+      <c r="U11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="L10:Q10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/sample.xlsx
+++ b/src/main/resources/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bionic Computer\Desktop\yyy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bionic Computer\Desktop\backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89A5E93-138F-40B5-B460-7A386E076E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0FE3D9-A46A-4DAA-B7E7-43B7AD5BAB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1943,8 +1943,8 @@
   </sheetPr>
   <dimension ref="A3:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2022,10 +2022,10 @@
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="26"/>
-      <c r="R10" s="28" t="s">
+      <c r="R10" s="23"/>
+      <c r="S10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="25"/>
       <c r="T10" s="25"/>
       <c r="U10" s="26"/>
       <c r="V10" s="15"/>
@@ -2084,11 +2084,11 @@
       <c r="Q11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="21" t="s">
+      <c r="R11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>17</v>
       </c>
       <c r="T11" s="21" t="s">
         <v>18</v>
@@ -2108,7 +2108,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="S10:U10"/>
     <mergeCell ref="L10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/sample.xlsx
+++ b/src/main/resources/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stepway\smsa\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7CC35C-D0BE-483F-9C55-39B001B39CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF4261-C448-4341-9EF4-4C6490CEFF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Customer Name:</t>
   </si>
@@ -703,10 +703,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R1001"/>
+  <dimension ref="A1:U1001"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -726,9 +726,9 @@
     <col min="15" max="15" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -745,7 +745,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -762,7 +762,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -781,7 +781,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -819,7 +819,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,7 +838,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -879,9 +879,12 @@
         <v>7</v>
       </c>
       <c r="Q10" s="25"/>
-      <c r="R10" s="26"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
     </row>
-    <row r="11" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -933,11 +936,20 @@
       <c r="Q11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -958,11 +970,14 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1950,7 +1965,7 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="P10:U10"/>
     <mergeCell ref="H10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1965,7 +1980,7 @@
   </sheetPr>
   <dimension ref="A3:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/sample.xlsx
+++ b/src/main/resources/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stepway\smsa\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF4261-C448-4341-9EF4-4C6490CEFF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4727E89B-38C5-42DA-B29A-6CEB25F2BD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Customer Name:</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t>SMSA Admin Charges</t>
+  </si>
+  <si>
+    <t>VAT on SMSA Charges</t>
+  </si>
+  <si>
+    <t>Custom Declaration Currency</t>
+  </si>
+  <si>
+    <t>Charges as per Custom Declaration Currency</t>
+  </si>
+  <si>
+    <t>Custom Declaration#</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
   </si>
 </sst>
 </file>
@@ -703,10 +718,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U1001"/>
+  <dimension ref="A1:V1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -726,9 +741,9 @@
     <col min="15" max="15" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -745,7 +760,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -762,7 +777,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -781,7 +796,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -800,7 +815,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -819,7 +834,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,7 +853,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -857,7 +872,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -866,7 +881,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="27" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="25"/>
@@ -882,9 +897,10 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
-      <c r="U10" s="26"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="26"/>
     </row>
-    <row r="11" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -901,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>14</v>
@@ -921,11 +937,11 @@
       <c r="L11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>17</v>
@@ -945,11 +961,14 @@
       <c r="T11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="U11" s="10" t="s">
-        <v>19</v>
+      <c r="U11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -973,11 +992,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1965,11 +1985,12 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="P10:V10"/>
     <mergeCell ref="H10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1978,10 +1999,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:AA11"/>
+  <dimension ref="A3:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1991,15 +2012,15 @@
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2015,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2023,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2031,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -2039,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -2064,15 +2085,12 @@
       </c>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
@@ -2133,31 +2151,22 @@
       <c r="T11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="U11" s="22" t="s">
-        <v>37</v>
+      <c r="U11" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="V11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="X11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="21" t="s">
+      <c r="W11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA11" s="22" t="s">
+      <c r="X11" s="22" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="R10:X10"/>
+    <mergeCell ref="R10:U10"/>
     <mergeCell ref="L10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/sample.xlsx
+++ b/src/main/resources/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stepway\smsa\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4727E89B-38C5-42DA-B29A-6CEB25F2BD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F79E25-9F7E-4F2B-B27E-A9B2F5537749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>Customer Name:</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Custom Declaration Date</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
   <dimension ref="A1:V1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -908,7 +911,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
